--- a/public/files/Data_By_Towns_Index/Ocean/Toms River Township.xlsx
+++ b/public/files/Data_By_Towns_Index/Ocean/Toms River Township.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>40.0089177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.21321569999999</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>40.0283654</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.2315117</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>39.9715399</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.1933956</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>39.9649624</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.2253406</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Goswami</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>39.9566167</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.2191936</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>39.9930807</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.19429819999999</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>40.0014372</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.19329639999999</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>39.9991851</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-74.1963763</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>39.9977397</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-74.19974689999999</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +773,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>39.9918869</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.17218419999999</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +804,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>40.0306491</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-74.2027995</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +835,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>39.9523299</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-74.14001879999999</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +866,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>39.9709113</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-74.174598</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +897,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>40.0106006</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-74.1305795</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -829,9 +928,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>40.0217611</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-74.17461659999999</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,9 +959,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>40.0421787</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-74.2134636</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -879,9 +990,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>40.0361554</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-74.21817849999999</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,9 +1021,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>40.0387723</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-74.25100999999999</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -929,9 +1052,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>40.0235287</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-74.2039879</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -954,9 +1083,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>39.9718531</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-74.2391167</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -979,9 +1114,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>39.9834941</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-74.14172739999999</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1004,9 +1145,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>39.9479403</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-74.1303142</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1029,9 +1176,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>39.9517353</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-74.1613533</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1054,9 +1207,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>40.0296467</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-74.24149489999999</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1079,9 +1238,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>39.9993445</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-74.17688459999999</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1104,9 +1269,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>40.0214727</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-74.21773449999999</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1129,9 +1300,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>40.0089227</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-74.2042076</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1154,9 +1331,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>39.9795215</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-74.1662017</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,9 +1362,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>39.9883881</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-74.172843</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1204,9 +1393,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>40.0115136</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-74.2096554</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1229,9 +1424,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>40.038738</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-74.250427</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1254,9 +1455,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>40.021441</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-74.217934</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1279,9 +1486,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>39.98989690000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-74.18629</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1304,9 +1517,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>40.0358564</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-74.2195196</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1329,9 +1548,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>40.0420609</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-74.24168689999999</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1354,9 +1579,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>40.008248</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-74.205792</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1379,9 +1610,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>39.9961624</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-74.22815539999999</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1404,9 +1641,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>39.9923581</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-74.1927992</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1429,9 +1672,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>40.011002</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-74.207256</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1454,9 +1703,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>39.9806493</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-74.20171019999999</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1479,9 +1734,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>39.9696724</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-74.19433819999999</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1504,9 +1765,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>39.9658845</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-74.1759849</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1529,9 +1796,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>40.0104901</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-74.2082985</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1554,9 +1827,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>40.0296467</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-74.24149489999999</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1579,9 +1858,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>39.9993445</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-74.17688459999999</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1604,9 +1889,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>39.9973086</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-74.1993435</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1629,9 +1920,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>40.0092908</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-74.20970129999999</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1654,9 +1951,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>40.005676</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-74.1443161</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1679,9 +1982,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>40.0406306</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-74.24508539999999</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1704,9 +2013,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>39.9530952</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-74.1633453</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1729,9 +2044,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>39.9516418</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-74.1612186</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1754,9 +2075,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>39.9858658</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-74.1434644</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1779,9 +2106,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>39.9932291</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-74.1930855</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1804,9 +2137,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>39.9573398</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-74.13116219999999</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1829,9 +2168,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>40.0092951</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-74.20706439999999</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1854,9 +2199,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>40.0100798</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-74.2111779</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1879,9 +2230,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>40.0100965</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-74.2080098</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1904,9 +2261,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>39.9564092</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-74.14183</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1929,9 +2292,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>39.965954</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-74.15855759999999</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1954,9 +2323,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>40.0107331</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-74.2113521</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1979,9 +2354,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>40.0150651</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-74.1620202</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2004,9 +2385,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>40.0055612</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-74.1406758</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2029,9 +2416,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>39.948989</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-74.12883669999999</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2054,9 +2447,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>39.9702061</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-74.1311623</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2079,9 +2478,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>40.0321988</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-74.2440096</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2104,9 +2509,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>39.9973086</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-74.1993435</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2129,9 +2540,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>40.0092908</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-74.20970129999999</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2154,9 +2571,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>40.005676</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-74.1443161</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2179,9 +2602,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>40.0406306</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-74.24508539999999</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2204,9 +2633,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>39.9530952</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-74.1633453</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2229,9 +2664,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>39.9516418</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-74.1612186</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2254,9 +2695,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>39.9858658</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-74.1434644</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2279,9 +2726,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>39.9932291</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-74.1930855</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2304,9 +2757,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>39.9663347</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-74.17396219999999</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2329,9 +2788,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>39.9791635</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-74.2245918</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2354,9 +2819,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>39.9999857</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-74.19897589999999</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2379,9 +2850,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>40.0225175</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-74.20537019999999</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2404,9 +2881,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>39.9794705</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-74.1867943</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2429,9 +2912,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F80" t="n">
+        <v>39.9671328</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-74.16727779999999</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2454,9 +2943,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>40.0314938</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-74.2034853</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2479,9 +2974,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F82" t="n">
+        <v>39.9948523</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-74.2047005</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2504,9 +3005,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>40.0347444</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-74.2176358</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2529,9 +3036,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>39.9789024</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-74.1869736</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2554,9 +3067,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F85" t="n">
+        <v>39.9796091</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-74.1917347</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2579,9 +3098,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F86" t="n">
+        <v>40.0221375</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-74.1736705</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2604,9 +3129,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F87" t="n">
+        <v>39.9740195</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-74.20647049999999</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2629,9 +3160,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F88" t="n">
+        <v>39.9656069</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-74.19173359999999</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2654,9 +3191,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F89" t="n">
+        <v>39.9655638</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-74.19131209999999</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2679,9 +3222,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F90" t="n">
+        <v>40.0072307</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-74.2094895</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2704,9 +3253,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>39.978725</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-74.1920349</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2729,9 +3284,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F92" t="n">
+        <v>40.0313205</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-74.2287307</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2754,9 +3315,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F93" t="n">
+        <v>40.0137472</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-74.1996537</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2779,9 +3346,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F94" t="n">
+        <v>40.015249</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-74.2138252</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2804,9 +3377,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F95" t="n">
+        <v>40.0064556</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-74.2050696</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2829,9 +3408,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>39.98530969999999</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-74.17457639999999</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2854,9 +3439,15 @@
           <t>Sheth</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>39.9454749</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-74.1219811</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2879,9 +3470,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F98" t="n">
+        <v>39.9794827</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-74.1875553</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2904,9 +3501,15 @@
           <t>Soni</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>40.0237171</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-74.16699699999999</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2929,9 +3532,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F100" t="n">
+        <v>39.9678203</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-74.19250339999999</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2954,9 +3563,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F101" t="n">
+        <v>39.9623009</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-74.15232829999999</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2979,9 +3594,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F102" t="n">
+        <v>40.03334419999999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-74.2441501</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -3004,9 +3625,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F103" t="n">
+        <v>40.01433050000001</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-74.190015</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -3029,9 +3656,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F104" t="n">
+        <v>40.043793</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-74.2431469</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -3054,9 +3687,15 @@
           <t>Panchal</t>
         </is>
       </c>
+      <c r="F105" t="n">
+        <v>40.021526</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-74.21843029999999</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -3079,9 +3718,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>39.9478234</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-74.137519</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -3104,9 +3749,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F107" t="n">
+        <v>39.9762457</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-74.2419639</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -3129,9 +3780,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F108" t="n">
+        <v>39.9584591</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-74.1431024</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -3154,9 +3811,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F109" t="n">
+        <v>40.0044585</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-74.2074367</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -3179,9 +3842,15 @@
           <t>Chauhan</t>
         </is>
       </c>
+      <c r="F110" t="n">
+        <v>39.986531</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-74.2104308</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -3204,9 +3873,15 @@
           <t>Rana</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>39.99927700000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-74.194368</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -3229,9 +3904,15 @@
           <t>Rana</t>
         </is>
       </c>
+      <c r="F112" t="n">
+        <v>40.0395057</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-74.2456045</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -3254,9 +3935,15 @@
           <t>Rana</t>
         </is>
       </c>
+      <c r="F113" t="n">
+        <v>39.9656346</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-74.16326599999999</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -3279,9 +3966,15 @@
           <t>Rana</t>
         </is>
       </c>
+      <c r="F114" t="n">
+        <v>39.9667212</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-74.2191497</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -3304,9 +3997,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F115" t="n">
+        <v>39.9486113</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-74.14691119999999</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -3329,9 +4028,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F116" t="n">
+        <v>40.001846</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-74.21956229999999</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -3354,9 +4059,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F117" t="n">
+        <v>40.0094072</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-74.22498829999999</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -3379,9 +4090,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F118" t="n">
+        <v>39.9691124</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-74.1344256</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -3403,6 +4120,12 @@
         <is>
           <t>Parikh</t>
         </is>
+      </c>
+      <c r="F119" t="n">
+        <v>39.948709</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-74.0734415</v>
       </c>
     </row>
   </sheetData>
